--- a/Files/template_2.0_A.xlsx
+++ b/Files/template_2.0_A.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E39515-3D81-465E-BAF5-E07D27436A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZH" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +79,150 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDE23FD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF47"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFD9E35"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9B9B"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -511,26 +655,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,30 +698,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10000">
-    <cfRule type="expression" dxfId="7" priority="15" stopIfTrue="1">
-      <formula>$F2&gt;1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$F2&gt;=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$F2&gt;9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
       <formula>$F2&gt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H10000">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$G2=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$G2=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$G2=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$G2=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$G2=11</formula>
     </cfRule>
   </conditionalFormatting>
